--- a/biology/Biochimie/Violaxanthine/Violaxanthine.xlsx
+++ b/biology/Biochimie/Violaxanthine/Violaxanthine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La violaxanthine (C40H56O4) est un caroténoïde, plus précisément un xanthophylle. C'est le précurseur de la néoxanthine dans la voie de biosynthèse des caroténoïdes. Chez le poivron, c'est aussi le précurseur de la capsorubine responsable de la coloration.
